--- a/SchedulingData/static5/pso/scheduling1_3.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_3.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>62.36</v>
+        <v>45.72</v>
       </c>
       <c r="E2" t="n">
-        <v>27.404</v>
+        <v>26.128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47.56</v>
+        <v>49.64</v>
       </c>
       <c r="E3" t="n">
-        <v>25.944</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.8</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>26.52</v>
+        <v>25.424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47.56</v>
+        <v>45.72</v>
       </c>
       <c r="D5" t="n">
-        <v>127.26</v>
+        <v>83.84</v>
       </c>
       <c r="E5" t="n">
-        <v>22.564</v>
+        <v>22.956</v>
       </c>
     </row>
     <row r="6">
@@ -542,74 +542,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41.8</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>106.4</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>23.16</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>106.4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>153.7</v>
+        <v>55.28</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>153.7</v>
+        <v>55.28</v>
       </c>
       <c r="D8" t="n">
-        <v>224.1</v>
+        <v>104.24</v>
       </c>
       <c r="E8" t="n">
-        <v>15.14</v>
+        <v>22.876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>104.24</v>
       </c>
       <c r="D9" t="n">
-        <v>73.8</v>
+        <v>160.14</v>
       </c>
       <c r="E9" t="n">
-        <v>26.26</v>
+        <v>19.396</v>
       </c>
     </row>
     <row r="10">
@@ -618,112 +618,112 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>224.1</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>274.5</v>
+        <v>121.7</v>
       </c>
       <c r="E10" t="n">
-        <v>11.72</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>69.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="E11" t="n">
-        <v>26.7</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>62.36</v>
+        <v>83.84</v>
       </c>
       <c r="D12" t="n">
-        <v>143.08</v>
+        <v>164.14</v>
       </c>
       <c r="E12" t="n">
-        <v>22.932</v>
+        <v>18.536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>73.8</v>
+        <v>121.7</v>
       </c>
       <c r="D13" t="n">
-        <v>116.3</v>
+        <v>161.9</v>
       </c>
       <c r="E13" t="n">
-        <v>23.14</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>143.08</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>202.88</v>
+        <v>128.48</v>
       </c>
       <c r="E14" t="n">
-        <v>17.592</v>
+        <v>20.952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>274.5</v>
+        <v>49.64</v>
       </c>
       <c r="D15" t="n">
-        <v>338.44</v>
+        <v>116.84</v>
       </c>
       <c r="E15" t="n">
-        <v>7.456</v>
+        <v>23.096</v>
       </c>
     </row>
     <row r="16">
@@ -732,55 +732,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>202.88</v>
+        <v>160.14</v>
       </c>
       <c r="D16" t="n">
-        <v>266.18</v>
+        <v>215</v>
       </c>
       <c r="E16" t="n">
-        <v>15.352</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>116.3</v>
+        <v>116.84</v>
       </c>
       <c r="D17" t="n">
-        <v>150.48</v>
+        <v>166.62</v>
       </c>
       <c r="E17" t="n">
-        <v>20.852</v>
+        <v>19.248</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>161.9</v>
       </c>
       <c r="D18" t="n">
-        <v>59.36</v>
+        <v>216.32</v>
       </c>
       <c r="E18" t="n">
-        <v>26.724</v>
+        <v>15.408</v>
       </c>
     </row>
     <row r="19">
@@ -789,169 +789,169 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>150.48</v>
+        <v>90.2</v>
       </c>
       <c r="D19" t="n">
-        <v>198.42</v>
+        <v>162.4</v>
       </c>
       <c r="E19" t="n">
-        <v>18.168</v>
+        <v>19.56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>69.40000000000001</v>
+        <v>215</v>
       </c>
       <c r="D20" t="n">
-        <v>127.28</v>
+        <v>260.1</v>
       </c>
       <c r="E20" t="n">
-        <v>23.532</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>127.26</v>
+        <v>162.4</v>
       </c>
       <c r="D21" t="n">
-        <v>177.12</v>
+        <v>222</v>
       </c>
       <c r="E21" t="n">
-        <v>19.708</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>59.36</v>
+        <v>260.1</v>
       </c>
       <c r="D22" t="n">
-        <v>124.26</v>
+        <v>321.92</v>
       </c>
       <c r="E22" t="n">
-        <v>23.344</v>
+        <v>10.568</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>266.18</v>
+        <v>222</v>
       </c>
       <c r="D23" t="n">
-        <v>321.78</v>
+        <v>274.94</v>
       </c>
       <c r="E23" t="n">
-        <v>12.432</v>
+        <v>13.516</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>198.42</v>
+        <v>166.62</v>
       </c>
       <c r="D24" t="n">
-        <v>249.92</v>
+        <v>207.22</v>
       </c>
       <c r="E24" t="n">
-        <v>14.648</v>
+        <v>16.328</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>127.28</v>
+        <v>128.48</v>
       </c>
       <c r="D25" t="n">
-        <v>217</v>
+        <v>175.88</v>
       </c>
       <c r="E25" t="n">
-        <v>19.66</v>
+        <v>17.832</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>321.78</v>
+        <v>164.14</v>
       </c>
       <c r="D26" t="n">
-        <v>367.1</v>
+        <v>205.22</v>
       </c>
       <c r="E26" t="n">
-        <v>9.52</v>
+        <v>15.568</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>367.1</v>
+        <v>207.22</v>
       </c>
       <c r="D27" t="n">
-        <v>426.78</v>
+        <v>277.22</v>
       </c>
       <c r="E27" t="n">
-        <v>5.672</v>
+        <v>12.908</v>
       </c>
     </row>
     <row r="28">
@@ -960,74 +960,74 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>124.26</v>
+        <v>205.22</v>
       </c>
       <c r="D28" t="n">
-        <v>168.18</v>
+        <v>273.84</v>
       </c>
       <c r="E28" t="n">
-        <v>20.572</v>
+        <v>11.816</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>217</v>
+        <v>175.88</v>
       </c>
       <c r="D29" t="n">
-        <v>267.52</v>
+        <v>244.48</v>
       </c>
       <c r="E29" t="n">
-        <v>16.228</v>
+        <v>14.092</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>168.18</v>
+        <v>216.32</v>
       </c>
       <c r="D30" t="n">
-        <v>255.08</v>
+        <v>253.68</v>
       </c>
       <c r="E30" t="n">
-        <v>15.472</v>
+        <v>12.812</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>249.92</v>
+        <v>321.92</v>
       </c>
       <c r="D31" t="n">
-        <v>297.84</v>
+        <v>367.6</v>
       </c>
       <c r="E31" t="n">
-        <v>11.476</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="32">
@@ -1036,74 +1036,74 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>177.12</v>
+        <v>244.48</v>
       </c>
       <c r="D32" t="n">
-        <v>224.52</v>
+        <v>304.8</v>
       </c>
       <c r="E32" t="n">
-        <v>16.588</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>224.52</v>
+        <v>273.84</v>
       </c>
       <c r="D33" t="n">
-        <v>281.58</v>
+        <v>350.2</v>
       </c>
       <c r="E33" t="n">
-        <v>12.012</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>255.08</v>
+        <v>253.68</v>
       </c>
       <c r="D34" t="n">
-        <v>335.58</v>
+        <v>296.18</v>
       </c>
       <c r="E34" t="n">
-        <v>11.992</v>
+        <v>9.692</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>335.58</v>
+        <v>367.6</v>
       </c>
       <c r="D35" t="n">
-        <v>395</v>
+        <v>427.62</v>
       </c>
       <c r="E35" t="n">
-        <v>7.68</v>
+        <v>4.708</v>
       </c>
     </row>
     <row r="36">
@@ -1112,36 +1112,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>281.58</v>
+        <v>304.8</v>
       </c>
       <c r="D36" t="n">
-        <v>318.8</v>
+        <v>373.62</v>
       </c>
       <c r="E36" t="n">
-        <v>9.42</v>
+        <v>7.888</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>297.84</v>
+        <v>277.22</v>
       </c>
       <c r="D37" t="n">
-        <v>353.72</v>
+        <v>328.32</v>
       </c>
       <c r="E37" t="n">
-        <v>8.528</v>
+        <v>9.428000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1150,74 +1150,74 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>267.52</v>
+        <v>328.32</v>
       </c>
       <c r="D38" t="n">
-        <v>361.04</v>
+        <v>391</v>
       </c>
       <c r="E38" t="n">
-        <v>12.476</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>361.04</v>
+        <v>274.94</v>
       </c>
       <c r="D39" t="n">
-        <v>393.84</v>
+        <v>326.44</v>
       </c>
       <c r="E39" t="n">
-        <v>9.836</v>
+        <v>9.996</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>338.44</v>
+        <v>326.44</v>
       </c>
       <c r="D40" t="n">
-        <v>398.12</v>
+        <v>375.52</v>
       </c>
       <c r="E40" t="n">
-        <v>3.608</v>
+        <v>7.708</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>353.72</v>
+        <v>296.18</v>
       </c>
       <c r="D41" t="n">
-        <v>414.5</v>
+        <v>334.78</v>
       </c>
       <c r="E41" t="n">
-        <v>5.56</v>
+        <v>7.452</v>
       </c>
     </row>
   </sheetData>
